--- a/biology/Botanique/Petite_bardane/Petite_bardane.xlsx
+++ b/biology/Botanique/Petite_bardane/Petite_bardane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctium minus
 La Petite bardane (Arctium minus) est une espèce de plante à fleurs herbacée de la famille des Astéracées.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Couleur dominante des fleurs : rose
 Période de floraison : août-septembre
@@ -522,7 +536,7 @@
 Fruit : akène
 Dissémination : épizoochore
 Habitat type : parois européennes, acidophiles, subalpines-alpines, alpio-pyrénéennes
-Aire de répartition : européen[1]
+Aire de répartition : européen
 			À Tolède en Espagne.
 			Sur les berges de la rivière Batiscan, au Québec, au Canada.
 </t>
@@ -553,7 +567,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les dénominations vernaculaires sont nombreuses pour cette plante :
 Bardane à petites têtes
@@ -586,10 +602,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Arctium minus subsp. minus (Hill) Bernhardi[2]
-Arctium minus subsp. pubens (Babington) P. Fournier[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Arctium minus subsp. minus (Hill) Bernhardi
+Arctium minus subsp. pubens (Babington) P. Fournier</t>
         </is>
       </c>
     </row>
